--- a/Calculs/PH2/DataBase_PH2_FileA_V4.xlsx
+++ b/Calculs/PH2/DataBase_PH2_FileA_V4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Citallios\Calculs\PH2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C261A8C9-4588-44EB-8722-5F980ECA6A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE34A74B-F1CF-46E9-8802-A10250BD767E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
+    <workbookView xWindow="38340" yWindow="130" windowWidth="38290" windowHeight="20600" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase_template" sheetId="1" r:id="rId1"/>
@@ -325,7 +325,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -511,6 +511,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -673,13 +679,14 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="33" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1059,8 +1066,8 @@
   <dimension ref="A1:AM55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z2" sqref="Z2:Z55"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1203,14 +1210,14 @@
       <c r="Q2">
         <v>1</v>
       </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
+      <c r="R2" s="6">
+        <v>2.9099999999999999E-5</v>
+      </c>
+      <c r="S2" s="6">
+        <v>0</v>
+      </c>
+      <c r="T2" s="6">
+        <v>4</v>
       </c>
       <c r="U2">
         <v>57</v>
@@ -1219,15 +1226,15 @@
         <v>17.5</v>
       </c>
       <c r="W2" s="3">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="X2" s="2">
         <f t="shared" ref="X2:X23" si="0">U2*(1-W2)</f>
-        <v>57</v>
+        <v>42.75</v>
       </c>
       <c r="Y2" s="2">
         <f t="shared" ref="Y2:Y23" si="1">U2*W2 + V2</f>
-        <v>17.5</v>
+        <v>31.75</v>
       </c>
       <c r="Z2" s="4">
         <f>1.35*U2+1.5*V2</f>
@@ -1299,8 +1306,8 @@
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>2</v>
+      <c r="T3" s="6">
+        <v>4</v>
       </c>
       <c r="U3">
         <v>24</v>
@@ -1309,15 +1316,15 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="W3" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X3" s="2">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="Y3" s="2">
         <f t="shared" si="1"/>
-        <v>8.1999999999999993</v>
+        <v>20.2</v>
       </c>
       <c r="Z3" s="4">
         <f t="shared" ref="Z3:Z55" si="2">1.35*U3+1.5*V3</f>
@@ -1399,15 +1406,15 @@
         <v>12</v>
       </c>
       <c r="W4" s="3">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="X4" s="2">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Z4" s="4">
         <f t="shared" si="2"/>
